--- a/simulacoes/teste2.xlsx
+++ b/simulacoes/teste2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16145AF-882D-43A5-85F9-70E8A923EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD01BB6-F185-4BD0-BAD8-C1A45707F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16800000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.25800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19800000000000001</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35599999999999998</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56200000000000006</c:v>
+                  <c:v>0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65800000000000003</c:v>
+                  <c:v>0.65900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>0.72599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.752</c:v>
+                  <c:v>0.72199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.75900000000000001</c:v>
+                  <c:v>0.74199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78100000000000003</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>0.77900000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDBD-4176-BF26-C7A35A106596}"/>
+              <c16:uniqueId val="{00000000-99A0-4A9D-9317-DB0CAF878C8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477422208"/>
-        <c:axId val="477416960"/>
+        <c:axId val="475610256"/>
+        <c:axId val="475603040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477422208"/>
+        <c:axId val="475610256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477416960"/>
+        <c:crossAx val="475603040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477416960"/>
+        <c:axId val="475603040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477422208"/>
+        <c:crossAx val="475610256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BE1DA8-E3D7-C0B5-47AB-DB8907DB3DFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E56A824-8E2D-4D2A-4681-71079B28AFD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,193 +1415,193 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.47099999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.58599999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.69299999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.70299999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.75900000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.78100000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.77400000000000002</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/simulacoes/teste2.xlsx
+++ b/simulacoes/teste2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD01BB6-F185-4BD0-BAD8-C1A45707F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D304436-D16B-48E4-9D8A-7678C3080E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.29399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.113</c:v>
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18</c:v>
+                  <c:v>0.45900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41399999999999998</c:v>
+                  <c:v>0.71499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47699999999999998</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57599999999999996</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57599999999999996</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.623</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65900000000000003</c:v>
+                  <c:v>0.85299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73199999999999998</c:v>
+                  <c:v>0.89300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72599999999999998</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72199999999999998</c:v>
+                  <c:v>0.91100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74199999999999999</c:v>
+                  <c:v>0.92400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77900000000000003</c:v>
+                  <c:v>0.94899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99A0-4A9D-9317-DB0CAF878C8B}"/>
+              <c16:uniqueId val="{00000000-5B41-4110-BE2E-D3592E57B113}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475610256"/>
-        <c:axId val="475603040"/>
+        <c:axId val="485305984"/>
+        <c:axId val="485307296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475610256"/>
+        <c:axId val="485305984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475603040"/>
+        <c:crossAx val="485307296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475603040"/>
+        <c:axId val="485307296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475610256"/>
+        <c:crossAx val="485305984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E56A824-8E2D-4D2A-4681-71079B28AFD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCB0145-0C5E-76C3-2192-9D32A8A0EA40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,190 +1418,190 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.47699999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.65900000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.69899999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.77900000000000003</v>
+        <v>0.94899999999999995</v>
       </c>
     </row>
   </sheetData>
